--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1426790.781607937</v>
+        <v>-1428689.013712061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>35.1228723493882</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6655513636789</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>131.6554731767143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>68.22769775781612</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.8053561548628</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>1.921181219817627</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>71.27833349215661</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.85599612146588</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>138.2970331133477</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,7 +1181,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>335.0711999026436</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>122.9755501377538</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>125.8092116959085</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642729</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836042</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>170.4824349897565</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>166.2450749838993</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>16.83551518996303</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>73.70134058808671</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>137.2533775135912</v>
+        <v>24.04847234318859</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.5776723133342</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.827716759979</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3008121192693011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593968</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224537</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463094</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2540.921261357941</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2322.286594330003</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2322.286594330003</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1991.223706986433</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1638.455051716319</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.455051716319</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.2572191628418</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>323.2572191628418</v>
+        <v>659.2121177843979</v>
       </c>
       <c r="V4" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W4" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X4" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.416431066817</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.8312459770189</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C7" t="n">
-        <v>272.8312459770189</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>272.8312459770189</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>125.9412984791085</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>125.9412984791085</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>125.9412984791085</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770189</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770189</v>
+        <v>416.4487827635302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1534.318342165211</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1534.318342165211</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1176.052643558461</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205145</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1920.918182229333</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942401</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942401</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>381.5656062325725</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>223.8172336651026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>601.0489723923852</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.2811958984823</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705755</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705755</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705755</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705755</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290396</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383393</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.71179077027</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.722239872252</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.9296607287221</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494011</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1925.508393158044</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246783</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.395368545903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.609953335409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1089.609953335409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1089.609953335409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>800.1927832984481</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X16" t="n">
-        <v>800.1927832984481</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.400204154918</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>842.8697743566707</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C19" t="n">
-        <v>673.9335914287639</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1360.276495291649</v>
+        <v>1474.624884352661</v>
       </c>
       <c r="T19" t="n">
-        <v>1360.276495291649</v>
+        <v>1474.624884352661</v>
       </c>
       <c r="U19" t="n">
-        <v>1360.276495291649</v>
+        <v>1474.624884352661</v>
       </c>
       <c r="V19" t="n">
-        <v>1360.276495291649</v>
+        <v>1474.624884352661</v>
       </c>
       <c r="W19" t="n">
-        <v>1070.859325254688</v>
+        <v>1474.624884352661</v>
       </c>
       <c r="X19" t="n">
-        <v>842.8697743566707</v>
+        <v>1246.635333454644</v>
       </c>
       <c r="Y19" t="n">
-        <v>842.8697743566707</v>
+        <v>1025.842754311114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1343.823316298178</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1120.037901087684</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1120.037901087684</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>865.3534128817969</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>865.3534128817969</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X25" t="n">
-        <v>637.3638619837795</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.2811958984813</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V28" t="n">
-        <v>985.6983659354419</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W28" t="n">
-        <v>696.2811958984813</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X28" t="n">
-        <v>696.2811958984813</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>696.2811958984813</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6959,7 +6959,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>360.5026862907258</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>223.6742649934473</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92.93335645406042</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>161.7950029260626</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>116.0405633468345</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>59.46458040513781</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.7799578282493</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>124.2194693955165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>60.66743247001205</v>
+        <v>173.8723376404147</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.51615797628583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>154.343137670269</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>28.09309322362424</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>251.8368312045587</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-2.720046538017391e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1272679.805056963</v>
+        <v>1272679.805056964</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1272679.805056964</v>
+        <v>1272679.805056963</v>
       </c>
     </row>
     <row r="11">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122046.6412035809</v>
+        <v>122046.641203581</v>
       </c>
       <c r="C2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="D2" t="n">
         <v>123156.2654796425</v>
-      </c>
-      <c r="D2" t="n">
-        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213127</v>
       </c>
       <c r="G2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="H2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="I2" t="n">
         <v>117308.7179213126</v>
@@ -26338,13 +26338,13 @@
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371262</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996773</v>
+        <v>161410.6210996772</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26442,19 +26442,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819111</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-712190.9371740503</v>
+        <v>-712209.4309119846</v>
       </c>
       <c r="C6" t="n">
         <v>-125335.6803702914</v>
@@ -26528,40 +26528,40 @@
         <v>-125335.6803702914</v>
       </c>
       <c r="E6" t="n">
-        <v>-522013.2520911709</v>
+        <v>-522110.711217143</v>
       </c>
       <c r="F6" t="n">
-        <v>3146.784385725186</v>
+        <v>3049.32525975311</v>
       </c>
       <c r="G6" t="n">
-        <v>3146.78438572523</v>
+        <v>3049.32525975311</v>
       </c>
       <c r="H6" t="n">
-        <v>3146.784385725245</v>
+        <v>3049.325259753022</v>
       </c>
       <c r="I6" t="n">
-        <v>3146.784385725259</v>
+        <v>3049.325259753095</v>
       </c>
       <c r="J6" t="n">
-        <v>-173276.4348068677</v>
+        <v>-173373.8939328399</v>
       </c>
       <c r="K6" t="n">
-        <v>-73657.74727228664</v>
+        <v>-73657.74727228654</v>
       </c>
       <c r="L6" t="n">
-        <v>-19152.23516857398</v>
+        <v>-19152.23516857401</v>
       </c>
       <c r="M6" t="n">
         <v>-153953.2504024112</v>
       </c>
       <c r="N6" t="n">
-        <v>-19152.2351685741</v>
+        <v>-19152.23516857404</v>
       </c>
       <c r="O6" t="n">
-        <v>-19152.23516857401</v>
+        <v>-19152.23516857404</v>
       </c>
       <c r="P6" t="n">
-        <v>-73657.74727228658</v>
+        <v>-73657.74727228659</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,19 +26762,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>347.6109693140924</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>261.7496851666226</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.75016144529266</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>35.5913479219135</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>218.0541764841616</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>124.7279954105284</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>206.9284855086178</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>384.3167574362359</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>63.68728830018162</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.2816472023621</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>243.6333369589141</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>51.16673875340996</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>11.99007165458447</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>160.7137866406825</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28266,37 +28266,37 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>-9.426533627750662e-13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28342,10 +28342,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>609.76039124675</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>410.0098272511729</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>326.262426096695</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>374.2497035813865</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
